--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Cxcl13-Ccr10.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Cxcl13-Ccr10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -74,9 +74,6 @@
   </si>
   <si>
     <t>Edge total expression derived specificity</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>FAPs</t>
@@ -446,7 +443,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,31 +516,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" t="s">
-        <v>23</v>
-      </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.2087556666666667</v>
+        <v>10.91523966666667</v>
       </c>
       <c r="H2">
-        <v>0.626267</v>
+        <v>32.745719</v>
       </c>
       <c r="I2">
-        <v>0.01876624903294638</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0.01876624903294638</v>
+        <v>1</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,19 +558,19 @@
         <v>0.393072250513715</v>
       </c>
       <c r="P2">
+        <v>0.3930722505137151</v>
+      </c>
+      <c r="Q2">
+        <v>11.31468650068155</v>
+      </c>
+      <c r="R2">
+        <v>101.832178506134</v>
+      </c>
+      <c r="S2">
         <v>0.393072250513715</v>
       </c>
-      <c r="Q2">
-        <v>0.2163951498735556</v>
-      </c>
-      <c r="R2">
-        <v>1.947556348862</v>
-      </c>
-      <c r="S2">
-        <v>0.007376491741081061</v>
-      </c>
       <c r="T2">
-        <v>0.007376491741081061</v>
+        <v>0.3930722505137151</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,31 +578,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>23</v>
       </c>
-      <c r="D3" t="s">
-        <v>24</v>
-      </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.2087556666666667</v>
+        <v>10.91523966666667</v>
       </c>
       <c r="H3">
-        <v>0.626267</v>
+        <v>32.745719</v>
       </c>
       <c r="I3">
-        <v>0.01876624903294638</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0.01876624903294638</v>
+        <v>1</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,143 +620,19 @@
         <v>0.6069277494862849</v>
       </c>
       <c r="P3">
-        <v>0.606927749486285</v>
+        <v>0.6069277494862849</v>
       </c>
       <c r="Q3">
-        <v>0.3341274311296667</v>
+        <v>17.47057240755766</v>
       </c>
       <c r="R3">
-        <v>3.007146880167</v>
+        <v>157.235151668019</v>
       </c>
       <c r="S3">
-        <v>0.01138975729186532</v>
+        <v>0.6069277494862849</v>
       </c>
       <c r="T3">
-        <v>0.01138975729186532</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20">
-      <c r="A4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4">
-        <v>3</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>10.91523966666667</v>
-      </c>
-      <c r="H4">
-        <v>32.745719</v>
-      </c>
-      <c r="I4">
-        <v>0.9812337509670536</v>
-      </c>
-      <c r="J4">
-        <v>0.9812337509670537</v>
-      </c>
-      <c r="K4">
-        <v>2</v>
-      </c>
-      <c r="L4">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M4">
-        <v>1.036595333333333</v>
-      </c>
-      <c r="N4">
-        <v>3.109786</v>
-      </c>
-      <c r="O4">
-        <v>0.393072250513715</v>
-      </c>
-      <c r="P4">
-        <v>0.393072250513715</v>
-      </c>
-      <c r="Q4">
-        <v>11.31468650068155</v>
-      </c>
-      <c r="R4">
-        <v>101.832178506134</v>
-      </c>
-      <c r="S4">
-        <v>0.385695758772634</v>
-      </c>
-      <c r="T4">
-        <v>0.385695758772634</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5">
-        <v>3</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>10.91523966666667</v>
-      </c>
-      <c r="H5">
-        <v>32.745719</v>
-      </c>
-      <c r="I5">
-        <v>0.9812337509670536</v>
-      </c>
-      <c r="J5">
-        <v>0.9812337509670537</v>
-      </c>
-      <c r="K5">
-        <v>3</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>1.600567</v>
-      </c>
-      <c r="N5">
-        <v>4.801701</v>
-      </c>
-      <c r="O5">
         <v>0.6069277494862849</v>
-      </c>
-      <c r="P5">
-        <v>0.606927749486285</v>
-      </c>
-      <c r="Q5">
-        <v>17.47057240755767</v>
-      </c>
-      <c r="R5">
-        <v>157.235151668019</v>
-      </c>
-      <c r="S5">
-        <v>0.5955379921944196</v>
-      </c>
-      <c r="T5">
-        <v>0.5955379921944197</v>
       </c>
     </row>
   </sheetData>
